--- a/2.5.1/四半期別売上報告書_グラフ追加済.xlsx
+++ b/2.5.1/四半期別売上報告書_グラフ追加済.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2980" yWindow="800" windowWidth="25200" windowHeight="17200" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="売上データ" sheetId="1" state="visible" r:id="rId1"/>
@@ -264,10 +264,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -278,6 +274,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -1601,7 +1601,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1659,7 +1659,7 @@
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="7" t="n"/>
       <c r="F2" s="7" t="n"/>
-      <c r="G2" s="16" t="inlineStr">
+      <c r="G2" s="20" t="inlineStr">
         <is>
           <t>株式会社ABCテスト</t>
         </is>
@@ -32759,95 +32759,95 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col width="15.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="15.7109375" customWidth="1" style="19" min="1" max="1"/>
     <col width="14.5703125" customWidth="1" style="1" min="2" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="n"/>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="A1" s="17" t="n"/>
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>A支店</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
         <is>
           <t>B支店</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="18" t="inlineStr">
         <is>
           <t>C支店</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="inlineStr">
+      <c r="A2" s="18" t="inlineStr">
         <is>
           <t>第1四半期</t>
         </is>
       </c>
-      <c r="B2" s="18" t="n">
+      <c r="B2" s="16" t="n">
         <v>2268640</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="C2" s="16" t="n">
         <v>4179120</v>
       </c>
-      <c r="D2" s="18" t="n">
+      <c r="D2" s="16" t="n">
         <v>3754190</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="20" t="inlineStr">
+      <c r="A3" s="18" t="inlineStr">
         <is>
           <t>第2四半期</t>
         </is>
       </c>
-      <c r="B3" s="18" t="n">
+      <c r="B3" s="16" t="n">
         <v>5872890</v>
       </c>
-      <c r="C3" s="18" t="n">
+      <c r="C3" s="16" t="n">
         <v>8182760</v>
       </c>
-      <c r="D3" s="18" t="n">
+      <c r="D3" s="16" t="n">
         <v>8202490</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="20" t="inlineStr">
+      <c r="A4" s="18" t="inlineStr">
         <is>
           <t>第3四半期</t>
         </is>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="16" t="n">
         <v>6679290</v>
       </c>
-      <c r="C4" s="18" t="n">
+      <c r="C4" s="16" t="n">
         <v>3249380</v>
       </c>
-      <c r="D4" s="18" t="n">
+      <c r="D4" s="16" t="n">
         <v>3722750</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="20" t="inlineStr">
+      <c r="A5" s="18" t="inlineStr">
         <is>
           <t>第4四半期</t>
         </is>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="16" t="n">
         <v>8509700</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="16" t="n">
         <v>6931020</v>
       </c>
-      <c r="D5" s="18" t="n">
+      <c r="D5" s="16" t="n">
         <v>11845640</v>
       </c>
     </row>

--- a/2.5.1/四半期別売上報告書_グラフ追加済.xlsx
+++ b/2.5.1/四半期別売上報告書_グラフ追加済.xlsx
@@ -388,30 +388,6 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'支店別売上サマリ'!A1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'支店別売上サマリ'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'支店別売上サマリ'!$A$2:$A$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
               <f>'支店別売上サマリ'!B1</f>
             </strRef>
           </tx>
@@ -432,8 +408,8 @@
           </val>
         </ser>
         <ser>
-          <idx val="2"/>
-          <order val="2"/>
+          <idx val="1"/>
+          <order val="1"/>
           <tx>
             <strRef>
               <f>'支店別売上サマリ'!C1</f>
